--- a/biology/Médecine/1497_en_santé_et_médecine/1497_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1497_en_santé_et_médecine/1497_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1497_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1497 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1497_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Paris de la maladrerie de l'abbaye de Saint-Germain-des-Prés, qui est à l'origine de l'hôpital des Petites Maisons[1].
-Fondation de la maison des Veuves de la rue Montmartre à Paris[2].
-Fondation de la première chaire de médecine en langue anglaise, au King's College d'Aberdeen, en Écosse[3].
-Après un vol à la bibliothèque de la faculté de médecine de Paris, il est décidé que les livres seront fixés à la table par une chaîne de fer[4].
-Le prévôt de Paris rédige une ordonnance pour protéger la santé publique contre la syphilis qui fait « des ravages effrayants dans les dernières années du XVe siècle, en France [et] en Europe[4] ».
-1497-1499 : le scorbut tue environ soixante pour cent des hommes embarqués avec Vasco de Gama pour son premier voyage[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Paris de la maladrerie de l'abbaye de Saint-Germain-des-Prés, qui est à l'origine de l'hôpital des Petites Maisons.
+Fondation de la maison des Veuves de la rue Montmartre à Paris.
+Fondation de la première chaire de médecine en langue anglaise, au King's College d'Aberdeen, en Écosse.
+Après un vol à la bibliothèque de la faculté de médecine de Paris, il est décidé que les livres seront fixés à la table par une chaîne de fer.
+Le prévôt de Paris rédige une ordonnance pour protéger la santé publique contre la syphilis qui fait « des ravages effrayants dans les dernières années du XVe siècle, en France [et] en Europe ».
+1497-1499 : le scorbut tue environ soixante pour cent des hommes embarqués avec Vasco de Gama pour son premier voyage.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1497_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,22 +562,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Divers
-Aboulcassis (940-1013), Liber al-Sahrawide Chirugia, traduction latine par Gérard de Crémone du livre sur la chirurgie du Kitab al-Tasrif, Venise[6].
-Alexandre Benedetti († 1511 au plus tôt), Anatomiae, sive De historia corporis humani, libri IV (écrit en 1483), Venise[7].
-Antoine Guainer († 1440), Practica[7].
-Barthélemy Montagnana († 1460), Selectiorum operum, Venise[7],[8].
-Francesco Caballus (c.1450-1540), Libellus de animali pastillos theriacos et theriacam ingrediente, Venise[8].
-Jean Arculanus (fl. milieu du XVe s.), Practica medica, sive Expositioni nonum Rhasis ad Almansorem, Venise[7].
-Jean Platearius (fl. fin du XIIIe s.), Expositiones et commentationes ad Nicolai antidotarium, Venise[7].
-Jérôme Brunschwig (1450-1512), apothicaire et chirurgien allemand, Das Buch der Cirurgia, Strasbourg, chez Grüninger[9].
-Lorenzo Maggiolo, De gradibus medicinarum, Venise, Alde Manuce.
-Sur la syphilis
-Bartolomeo Stëber, A mala Franczos morbo Gallorum preservatio ac cura (écrit en 1494), Vienne, chez Johannes Winterburg[10],[11].
-Gaspard Torella (fl. 1477-1512), Tratactus cum consiliis contra pudendagram, sive morbum gallicum, Rome[7].
-Jean Weidmann, dit Meichinger, De pustulis quae vulgato nomine dicuntur mal de Franzos, Strasbourg[4],[12]
-Johann († 1515) et Ambrosius Jung (pl) (1471-1534), De morbo mal de Franco, Augsbourg[13].
-Noël Montesaurus (fl. au XVe s.), De epidemia quam vulgares « mal francozoso » appellant[7].</t>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aboulcassis (940-1013), Liber al-Sahrawide Chirugia, traduction latine par Gérard de Crémone du livre sur la chirurgie du Kitab al-Tasrif, Venise.
+Alexandre Benedetti († 1511 au plus tôt), Anatomiae, sive De historia corporis humani, libri IV (écrit en 1483), Venise.
+Antoine Guainer († 1440), Practica.
+Barthélemy Montagnana († 1460), Selectiorum operum, Venise,.
+Francesco Caballus (c.1450-1540), Libellus de animali pastillos theriacos et theriacam ingrediente, Venise.
+Jean Arculanus (fl. milieu du XVe s.), Practica medica, sive Expositioni nonum Rhasis ad Almansorem, Venise.
+Jean Platearius (fl. fin du XIIIe s.), Expositiones et commentationes ad Nicolai antidotarium, Venise.
+Jérôme Brunschwig (1450-1512), apothicaire et chirurgien allemand, Das Buch der Cirurgia, Strasbourg, chez Grüninger.
+Lorenzo Maggiolo, De gradibus medicinarum, Venise, Alde Manuce.</t>
         </is>
       </c>
     </row>
@@ -573,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1497_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,13 +601,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naissances</t>
+          <t>Publications (seulement les éditions princeps)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4 mai : Michel-Ange Biondo (mort vers 1565), médecin italien[14].
-Jacques Curio (mort en 1572), médecin allemand, professeur à Ingolstadt et Heidelberg[8].</t>
+          <t>Sur la syphilis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bartolomeo Stëber, A mala Franczos morbo Gallorum preservatio ac cura (écrit en 1494), Vienne, chez Johannes Winterburg,.
+Gaspard Torella (fl. 1477-1512), Tratactus cum consiliis contra pudendagram, sive morbum gallicum, Rome.
+Jean Weidmann, dit Meichinger, De pustulis quae vulgato nomine dicuntur mal de Franzos, Strasbourg,
+Johann († 1515) et Ambrosius Jung (pl) (1471-1534), De morbo mal de Franco, Augsbourg.
+Noël Montesaurus (fl. au XVe s.), De epidemia quam vulgares « mal francozoso » appellant.</t>
         </is>
       </c>
     </row>
@@ -604,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1497_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,13 +641,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 mai : Michel-Ange Biondo (mort vers 1565), médecin italien.
+Jacques Curio (mort en 1572), médecin allemand, professeur à Ingolstadt et Heidelberg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1497_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1497_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Giovanni Catellano (né à une date inconnue), médecin attitré de l'Office de santé de Milan de 1451 à sa mort[15].
-Bernard Tornius (né en 1452), médecin italien, professeur à Pise de 1478 à sa mort[16].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Giovanni Catellano (né à une date inconnue), médecin attitré de l'Office de santé de Milan de 1451 à sa mort.
+Bernard Tornius (né en 1452), médecin italien, professeur à Pise de 1478 à sa mort.</t>
         </is>
       </c>
     </row>
